--- a/static/templateProduk.xlsx
+++ b/static/templateProduk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_WORK\00_PERSONAL_PROJECT\0_DPS\frontend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69F420E-D720-4C25-9520-BBAE2698154E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E320C82-2A75-4A68-B97A-B557D5603D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ID Kategori</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>Barcode</t>
+  </si>
+  <si>
+    <t>Nama Barang Pendek</t>
+  </si>
+  <si>
+    <t>BLN LTX BIRU</t>
+  </si>
+  <si>
+    <t>BLN LTX MERAH</t>
   </si>
 </sst>
 </file>
@@ -89,9 +98,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -422,11 +430,11 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -447,12 +455,15 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1234</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -473,12 +484,15 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>3214</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -499,14 +513,9 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/static/templateProduk.xlsx
+++ b/static/templateProduk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\00_WORK\00_PERSONAL_PROJECT\0_DPS\frontend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E320C82-2A75-4A68-B97A-B557D5603D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302015A3-E582-455D-8ADB-8A9FBD81990F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>ID Kategori</t>
   </si>
@@ -55,15 +55,6 @@
   </si>
   <si>
     <t>Barcode</t>
-  </si>
-  <si>
-    <t>Nama Barang Pendek</t>
-  </si>
-  <si>
-    <t>BLN LTX BIRU</t>
-  </si>
-  <si>
-    <t>BLN LTX MERAH</t>
   </si>
 </sst>
 </file>
@@ -414,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -430,7 +421,7 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -455,11 +446,8 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -484,11 +472,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3214</v>
       </c>
@@ -512,9 +497,6 @@
       </c>
       <c r="H3">
         <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
